--- a/customer/Cherry_Customer_Coin.xlsx
+++ b/customer/Cherry_Customer_Coin.xlsx
@@ -221,13 +221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,25 +516,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -545,126 +533,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,509 +987,511 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="10"/>
-    <col min="2" max="2" width="8.796875" style="2"/>
-    <col min="3" max="3" width="15.796875" style="2" customWidth="1"/>
-    <col min="4" max="11" width="8.796875" style="2"/>
-    <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="15" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.3984375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="8.796875" style="6"/>
+    <col min="2" max="2" width="8.796875" style="1"/>
+    <col min="3" max="3" width="15.796875" style="1" customWidth="1"/>
+    <col min="4" max="11" width="8.796875" style="1"/>
+    <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.3984375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="1" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="37">
         <v>44501</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="38"/>
+      <c r="R2" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="3" t="s">
+    <row r="3" spans="1:18" s="39" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="46">
         <v>44501</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="2" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="53" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="2" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="4" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41" t="s">
+      <c r="R5" s="53"/>
+    </row>
+    <row r="6" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="52"/>
+      <c r="B6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="4" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="51" t="s">
         <v>14</v>
       </c>
+      <c r="R6" s="53"/>
     </row>
     <row r="7" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="6" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="6" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="79.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="15" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="15" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="15" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="15" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="15" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:18" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="15" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="15" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="15" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="15" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/customer/Cherry_Customer_Coin.xlsx
+++ b/customer/Cherry_Customer_Coin.xlsx
@@ -105,9 +105,6 @@
 So, if customer want to buy coin, need to create an account.</t>
   </si>
   <si>
-    <t>After sign in,when customer click 'Buy Coin' btn from header, customer will be deliverd to this address  "http://127.0.0.1:8000/buycoin".</t>
-  </si>
-  <si>
     <t>initial load
 (Coin Rule)</t>
   </si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>2022/03/11</t>
+  </si>
+  <si>
+    <t>After sign in,when customer click 'Buy Coin' btn from header, customer will be deliverd to this address  "http://www.website.com/buycoin".</t>
   </si>
 </sst>
 </file>
@@ -227,7 +227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,27 +548,46 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -583,24 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -666,7 +667,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,190 +1001,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-    </row>
-    <row r="2" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="36" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="38">
         <v>44501</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="53" t="s">
+      <c r="Q2" s="39"/>
+      <c r="R2" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="39" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45" t="s">
+    <row r="3" spans="1:18" s="40" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="46">
+      <c r="P3" s="47">
         <v>44501</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="53" t="s">
+      <c r="Q3" s="48"/>
+      <c r="R3" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="53" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="53"/>
-    </row>
-    <row r="6" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="52"/>
-      <c r="B6" s="49" t="s">
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="53"/>
+      <c r="B6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="50" t="s">
+      <c r="P6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="53"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -1194,26 +1194,26 @@
       <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -1223,26 +1223,26 @@
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -1252,26 +1252,26 @@
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1281,26 +1281,26 @@
       <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="B11" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1310,26 +1310,26 @@
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
@@ -1339,26 +1339,26 @@
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1368,26 +1368,26 @@
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1397,26 +1397,26 @@
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1426,26 +1426,26 @@
       <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="B16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
@@ -1455,26 +1455,26 @@
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -1495,15 +1495,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:Q4"/>
@@ -1520,15 +1520,15 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="D13:L13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="41" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>

--- a/customer/Cherry_Customer_Coin.xlsx
+++ b/customer/Cherry_Customer_Coin.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Create Date</t>
   </si>
@@ -99,10 +99,6 @@
   </si>
   <si>
     <t>Cherry</t>
-  </si>
-  <si>
-    <t>If customer does not sign in, customer can not see Boy Coin header.
-So, if customer want to buy coin, need to create an account.</t>
   </si>
   <si>
     <t>initial load
@@ -122,60 +118,63 @@
 (Coin calculator)</t>
   </si>
   <si>
-    <t>When customer want to buy coins to use in this project, customer can transfer money(Myanmar Kyats) to the banking accounts such as Kpay account,CB account,AYA account, KBZ account.
+    <t>In initial stage, there is no value in coin input box and myanmar money input box.</t>
+  </si>
+  <si>
+    <t>When customer adds coin amount into the coin input box, the coin amount is automatically  showed in the left coin input box under the 'Coin Charge' title and the amount of money is also showed in myanmar kyats input box.</t>
+  </si>
+  <si>
+    <t>Coin calculator
+(coin input box)</t>
+  </si>
+  <si>
+    <t>Coin calculator
+(myanmar kyats input box)</t>
+  </si>
+  <si>
+    <t>Coin input box under 'Coin Charge' title</t>
+  </si>
+  <si>
+    <t>The process of adding coin amount into the coin input box under 'Coin Charge' title is  also same as the process of adding coin amount into the coin input box of coin calculator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot photo </t>
+  </si>
+  <si>
+    <t>Charge Btn</t>
+  </si>
+  <si>
+    <t>Reset Btn</t>
+  </si>
+  <si>
+    <t>If customer want to reset the datas in input boxes, customer can click reset btn.
+When customer clicks reset btn, there is no data in the myanmar kyats input box and two coin input boxes.</t>
+  </si>
+  <si>
+    <t>Food Lab</t>
+  </si>
+  <si>
+    <t>2022/03/11</t>
+  </si>
+  <si>
+    <t>When customer click 'Buy Coin' btn from header, customer will be deliverd to this address  "http://www.website.com/buycoin".</t>
+  </si>
+  <si>
+    <t>When customer want to buy coins to use in this website, customer need to transfer money(Myanmar Kyats) to the banking accounts from the database.
 The banking accounts will show following sql qurey;
   M_Payment::where('del_flg',0)-&gt;get();</t>
   </si>
   <si>
-    <t>In initial stage, there is no value in coin input box and myanmar money input box.</t>
-  </si>
-  <si>
-    <t>When customer adds coin amount into the coin input box, the coin amount is automatically  showed in the left coin input box under the 'Coin Charge' title and the amount of money is also showed in myanmar kyats input box.</t>
-  </si>
-  <si>
-    <t>Coin calculator
-(coin input box)</t>
-  </si>
-  <si>
-    <t>Coin calculator
-(myanmar kyats input box)</t>
-  </si>
-  <si>
-    <t>Contrary to coin input box, when customer adds myanmar kyat amount into the myanmar kyats input box, the coin amount is automatically  showed in two coin input boxes.</t>
-  </si>
-  <si>
-    <t>Coin input box under 'Coin Charge' title</t>
-  </si>
-  <si>
-    <t>The process of adding coin amount into the coin input box under 'Coin Charge' title is  also same as the process of adding coin amount into the coin input box of coin calculator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screenshot photo </t>
-  </si>
-  <si>
-    <t>Customer must add photo of money transfer vouncher into choose file box.</t>
-  </si>
-  <si>
-    <t>Charge Btn</t>
-  </si>
-  <si>
-    <t>Reset Btn</t>
-  </si>
-  <si>
-    <t>When customer clicks charge btn,money transfer process is succeeded.</t>
-  </si>
-  <si>
-    <t>If customer want to reset the datas in input boxes, customer can click reset btn.
-When customer clicks reset btn, there is no data in the myanmar kyats input box and two coin input boxes.</t>
-  </si>
-  <si>
-    <t>Food Lab</t>
-  </si>
-  <si>
-    <t>2022/03/11</t>
-  </si>
-  <si>
-    <t>After sign in,when customer click 'Buy Coin' btn from header, customer will be deliverd to this address  "http://www.website.com/buycoin".</t>
+    <t>Contrary to coin input box, when customer adds myanmar kyat amount into the myanmar kyats input box, the coin amount is automatically  showed in both two coin input boxes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer must add photo of money transfer vouncher into choose file box.
+Screenshot photo type must be "jpg,png,jpeg,gif,svg" and also file size cannot be greater than 51200Mb.
+</t>
+  </si>
+  <si>
+    <t>When customer clicks charge btn,alert box will appear to confirm.
+If customer click 'Yes'btn, money  transfer process will be succeeded.</t>
   </si>
 </sst>
 </file>
@@ -516,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -530,28 +529,95 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,10 +628,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -583,10 +649,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -598,74 +664,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -992,7 +994,7 @@
     <col min="3" max="3" width="15.796875" style="1" customWidth="1"/>
     <col min="4" max="11" width="8.796875" style="1"/>
     <col min="12" max="12" width="15.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.09765625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16.09765625" style="8" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.3984375" style="1" customWidth="1"/>
@@ -1001,525 +1003,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="38">
+      <c r="P2" s="34">
         <v>44501</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="13" t="s">
+      <c r="Q2" s="35"/>
+      <c r="R2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="40" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46" t="s">
+    <row r="3" spans="1:18" s="11" customFormat="1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="47">
+      <c r="P3" s="36">
         <v>44501</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="13" t="s">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="13" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="51" t="s">
+      <c r="O5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="52" t="s">
+      <c r="Q5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53"/>
-      <c r="B6" s="50" t="s">
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="51" t="s">
+      <c r="O6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="51" t="s">
+      <c r="P6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="52" t="s">
+      <c r="Q6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8">
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="2" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>42</v>
+      <c r="N7" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:18" ht="49.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="8">
+    <row r="8" spans="1:18" ht="106.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="2" t="s">
+      <c r="B8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="79.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="N8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" ht="85.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="11" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="12" t="s">
-        <v>42</v>
+      <c r="N9" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+    <row r="10" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="11" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>42</v>
+      <c r="N10" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+    <row r="11" spans="1:18" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="18">
         <v>5</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="11" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="12" t="s">
-        <v>42</v>
+      <c r="N11" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+    <row r="12" spans="1:18" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="11" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>42</v>
+      <c r="N12" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+    <row r="13" spans="1:18" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="11" t="s">
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="12" t="s">
-        <v>42</v>
+      <c r="N13" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+    <row r="14" spans="1:18" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="11" t="s">
+      <c r="B14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>42</v>
+      <c r="N14" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+    <row r="15" spans="1:18" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="11" t="s">
+      <c r="B15" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="12" t="s">
-        <v>42</v>
+      <c r="N15" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+    <row r="16" spans="1:18" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18">
         <v>10</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="32">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
     <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D11:L11"/>
     <mergeCell ref="D12:L12"/>
-    <mergeCell ref="D13:L13"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:L1"/>
     <mergeCell ref="A5:A6"/>
